--- a/1차 프로젝트_웹_API_0902-0926/data/export-AnimalList-15_09_2022 15_59.xlsx
+++ b/1차 프로젝트_웹_API_0902-0926/data/export-AnimalList-15_09_2022 15_59.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cakd7\1차 프로젝트_웹_API_0902-0926\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E998A4BA-9CC4-4B11-A6C1-6D03856795EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183076DF-39BF-423A-AAE7-15EEA7CF4DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-480" yWindow="900" windowWidth="12585" windowHeight="13815" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="export-AnimalList-15_09_2022 15" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -346,7 +346,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -625,8 +625,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,6 +635,7 @@
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -673,6 +674,9 @@
       <c r="E2">
         <v>209</v>
       </c>
+      <c r="G2">
+        <v>20200107</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -693,6 +697,9 @@
       <c r="F3">
         <v>10060129</v>
       </c>
+      <c r="G3">
+        <v>20210101</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -710,6 +717,9 @@
       <c r="E4">
         <v>206</v>
       </c>
+      <c r="G4">
+        <v>20200111</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -727,6 +737,9 @@
       <c r="E5">
         <v>364</v>
       </c>
+      <c r="G5">
+        <v>20130110</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -744,6 +757,9 @@
       <c r="E6">
         <v>266</v>
       </c>
+      <c r="G6">
+        <v>20200114</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -764,6 +780,9 @@
       <c r="F7">
         <v>10058636</v>
       </c>
+      <c r="G7">
+        <v>20210104</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -781,6 +800,9 @@
       <c r="E8">
         <v>167</v>
       </c>
+      <c r="G8">
+        <v>20200116</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -800,6 +822,9 @@
       </c>
       <c r="F9">
         <v>10060018</v>
+      </c>
+      <c r="G9">
+        <v>20210104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -821,6 +846,9 @@
       <c r="F10">
         <v>10059512</v>
       </c>
+      <c r="G10">
+        <v>20210108</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -841,6 +869,9 @@
       <c r="F11">
         <v>10060023</v>
       </c>
+      <c r="G11">
+        <v>20200122</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -861,6 +892,9 @@
       <c r="F12">
         <v>10059559</v>
       </c>
+      <c r="G12">
+        <v>20200124</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -878,6 +912,9 @@
       <c r="E13">
         <v>605</v>
       </c>
+      <c r="G13">
+        <v>20210118</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -895,6 +932,9 @@
       <c r="E14">
         <v>139</v>
       </c>
+      <c r="G14">
+        <v>20200204</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -913,6 +953,9 @@
       <c r="E15">
         <v>216</v>
       </c>
+      <c r="G15">
+        <v>20200208</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -933,8 +976,11 @@
       <c r="F16">
         <v>10058414</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>20200227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>18</v>
       </c>
@@ -953,8 +999,11 @@
       <c r="F17">
         <v>10059173</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>20200305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19</v>
       </c>
@@ -973,8 +1022,11 @@
       <c r="F18">
         <v>10057889</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>20200308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23</v>
       </c>
@@ -990,8 +1042,11 @@
       <c r="E19">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>20200316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>24</v>
       </c>
@@ -1007,8 +1062,11 @@
       <c r="E20">
         <v>200</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>20200319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>25</v>
       </c>
@@ -1024,8 +1082,11 @@
       <c r="E21">
         <v>177</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>20200318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26</v>
       </c>
@@ -1041,8 +1102,11 @@
       <c r="E22">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>20200319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>27</v>
       </c>
@@ -1058,8 +1122,11 @@
       <c r="E23">
         <v>909</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>20200320</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28</v>
       </c>
@@ -1078,8 +1145,11 @@
       <c r="F24">
         <v>10075502</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>20200321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1098,8 +1168,11 @@
       <c r="F25">
         <v>10058515</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>20200329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>30</v>
       </c>
@@ -1115,8 +1188,11 @@
       <c r="E26">
         <v>158</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>20200402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>34</v>
       </c>
@@ -1135,8 +1211,11 @@
       <c r="F27">
         <v>10058324</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>20200411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>36</v>
       </c>
@@ -1156,7 +1235,7 @@
         <v>10058698</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>41</v>
       </c>
@@ -1176,7 +1255,7 @@
         <v>10057862</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44</v>
       </c>
@@ -1193,7 +1272,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>46</v>
       </c>
@@ -1213,7 +1292,7 @@
         <v>10057894</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>47</v>
       </c>
